--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BootCamp Selenium\web-automation-framework-team4\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tasnia\eclipse-workspace\Final_Bootcamp_selenium\web-automation-framework-team4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC02A-BD81-4F21-A15A-635B3406A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF6A15-1A4C-4C9A-92B0-8A381BED9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Magento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>key</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>Bag search title</t>
+  </si>
+  <si>
+    <t>Twitter Title</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Facebook Title</t>
+  </si>
+  <si>
+    <t>Facebook - log in or sign up</t>
+  </si>
+  <si>
+    <t>Cogmento CRM (@cogmento) / Twitter</t>
   </si>
 </sst>
 </file>
@@ -447,14 +465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06366500-8E0F-450E-AD88-4A222A134266}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="52.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -531,7 +549,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,14 +557,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DC61EC-FBDB-4480-9D4A-00E5A636ADCF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BootCamp Selenium\web-automation-framework-team4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC02A-BD81-4F21-A15A-635B3406A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320CB7C0-9D22-4AB5-AD2C-523883D78413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="11265" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Magento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>key</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Bag search title</t>
+  </si>
+  <si>
+    <t>Search results for: 'jacket' Magento Commerce - website to practice selenium | demo website for automation testing | selenium practice sites</t>
+  </si>
+  <si>
+    <t>jacket search title</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF067D17"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06366500-8E0F-450E-AD88-4A222A134266}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -515,6 +521,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BootCamp Selenium\web-automation-framework-team4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320CB7C0-9D22-4AB5-AD2C-523883D78413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1556365-69B4-4F6E-823D-1C87A94B8466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="19185" windowHeight="11265" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{156C18FC-53B5-48A2-8DE3-FD4274B8F2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Magento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>key</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>jacket search title</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Twitter Title</t>
+  </si>
+  <si>
+    <t>Cogmento CRM (@cogmento) / Twitter</t>
+  </si>
+  <si>
+    <t>Facebook Title</t>
+  </si>
+  <si>
+    <t>Facebook - log in or sign up</t>
   </si>
 </sst>
 </file>
@@ -454,7 +472,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -553,14 +571,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DC61EC-FBDB-4480-9D4A-00E5A636ADCF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>